--- a/productos.xlsx
+++ b/productos.xlsx
@@ -887,7 +887,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1402,7 +1402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="282">
   <si>
     <t>codigo</t>
   </si>
@@ -46,7 +46,7 @@
     <t>1,00</t>
   </si>
   <si>
-    <t>17.40$</t>
+    <t>asdas</t>
   </si>
   <si>
     <t>6 PAQ</t>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>1,80</t>
-  </si>
-  <si>
-    <t>56.10$</t>
   </si>
   <si>
     <t>3 ROLLO</t>
@@ -1016,7 +1013,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1038,6 +1035,9 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1374,12 +1374,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="11" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="11" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="12" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="12" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="12" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="12" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1435,450 +1435,450 @@
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="8">
+        <v>132.41</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="C4" s="10">
+        <f>_xlfn.CONCAT(A4,".jpg")</f>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="9">
-        <f>_xlfn.CONCAT(A4,".jpg")</f>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="C5" s="10">
         <f>_xlfn.CONCAT(A5,".jpg")</f>
       </c>
       <c r="D5" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="C6" s="10">
+        <f>_xlfn.CONCAT(A6,".jpg")</f>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="9">
-        <f>_xlfn.CONCAT(A6,".jpg")</f>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="9">
+      <c r="C7" s="10">
         <f>_xlfn.CONCAT(A7,".jpg")</f>
       </c>
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="C8" s="10">
+        <f>_xlfn.CONCAT(A8,".jpg")</f>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="9">
-        <f>_xlfn.CONCAT(A8,".jpg")</f>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>28</v>
+      <c r="F8" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="C9" s="10">
         <f>_xlfn.CONCAT(A9,".jpg")</f>
       </c>
       <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="C10" s="10">
+        <f>_xlfn.CONCAT(A10,".jpg")</f>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="9">
-        <f>_xlfn.CONCAT(A10,".jpg")</f>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="C11" s="10">
         <f>_xlfn.CONCAT(A11,".jpg")</f>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="10">
+        <f>_xlfn.CONCAT(A12,".jpg")</f>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="9">
-        <f>_xlfn.CONCAT(A12,".jpg")</f>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>46</v>
+      <c r="F12" s="9" t="s">
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="C13" s="10">
         <f>_xlfn.CONCAT(A13,".jpg")</f>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="10">
+        <f>_xlfn.CONCAT(A14,".jpg")</f>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="9">
-        <f>_xlfn.CONCAT(A14,".jpg")</f>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>28</v>
+      <c r="F14" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="9">
+        <v>36</v>
+      </c>
+      <c r="C15" s="10">
         <f>_xlfn.CONCAT(A15,".jpg")</f>
       </c>
       <c r="D15" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="10">
+        <f>_xlfn.CONCAT(A16,".jpg")</f>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="9">
-        <f>_xlfn.CONCAT(A16,".jpg")</f>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="F16" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="9">
+        <v>33</v>
+      </c>
+      <c r="C17" s="10">
         <f>_xlfn.CONCAT(A17,".jpg")</f>
       </c>
       <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="10">
+        <f>_xlfn.CONCAT(A18,".jpg")</f>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="9">
-        <f>_xlfn.CONCAT(A18,".jpg")</f>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>28</v>
+      <c r="F18" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="9">
+        <v>39</v>
+      </c>
+      <c r="C19" s="10">
         <f>_xlfn.CONCAT(A19,".jpg")</f>
       </c>
       <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="10">
+        <f>_xlfn.CONCAT(A20,".jpg")</f>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="9">
-        <f>_xlfn.CONCAT(A20,".jpg")</f>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>28</v>
+      <c r="F20" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="9">
+        <v>36</v>
+      </c>
+      <c r="C21" s="10">
         <f>_xlfn.CONCAT(A21,".jpg")</f>
       </c>
       <c r="D21" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="10">
+        <f>_xlfn.CONCAT(A22,".jpg")</f>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="9">
-        <f>_xlfn.CONCAT(A22,".jpg")</f>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="9">
+        <v>33</v>
+      </c>
+      <c r="C23" s="10">
         <f>_xlfn.CONCAT(A23,".jpg")</f>
       </c>
       <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="10">
+        <f>_xlfn.CONCAT(A24,".jpg")</f>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="9">
-        <f>_xlfn.CONCAT(A24,".jpg")</f>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>28</v>
+      <c r="F24" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="10">
+        <f>_xlfn.CONCAT(A25,".jpg")</f>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C25" s="9">
-        <f>_xlfn.CONCAT(A25,".jpg")</f>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="10" t="s">
+      <c r="F25" s="11" t="s">
         <v>41</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1888,7 +1888,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1898,7 +1898,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1908,7 +1908,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1918,7 +1918,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1928,7 +1928,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1938,7 +1938,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1948,7 +1948,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1958,7 +1958,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1968,7 +1968,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1978,7 +1978,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1988,7 +1988,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1998,7 +1998,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2008,7 +2008,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2018,7 +2018,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2028,7 +2028,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2038,7 +2038,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2048,7 +2048,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2058,7 +2058,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2068,7 +2068,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2078,7 +2078,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2088,7 +2088,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2098,7 +2098,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2108,7 +2108,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2118,7 +2118,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2128,7 +2128,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2138,7 +2138,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2148,7 +2148,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2158,7 +2158,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2168,7 +2168,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2178,7 +2178,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2188,7 +2188,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2198,7 +2198,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2208,7 +2208,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2218,7 +2218,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2228,7 +2228,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2238,7 +2238,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2248,7 +2248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2258,7 +2258,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2268,7 +2268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2278,7 +2278,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2288,7 +2288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2298,7 +2298,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2308,7 +2308,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2318,7 +2318,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2328,7 +2328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2338,7 +2338,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2348,7 +2348,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2358,7 +2358,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2368,7 +2368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2378,7 +2378,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2388,7 +2388,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2398,7 +2398,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2408,7 +2408,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2418,7 +2418,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2428,7 +2428,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2438,7 +2438,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2448,7 +2448,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2458,7 +2458,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2468,7 +2468,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2478,7 +2478,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2488,7 +2488,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2498,7 +2498,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2508,7 +2508,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2518,7 +2518,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2528,7 +2528,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2538,7 +2538,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2548,7 +2548,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2558,7 +2558,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2568,7 +2568,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2578,7 +2578,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2588,7 +2588,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2598,7 +2598,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2608,7 +2608,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2618,7 +2618,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2628,7 +2628,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2638,7 +2638,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2648,7 +2648,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2658,7 +2658,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2668,7 +2668,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2678,7 +2678,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2688,7 +2688,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2698,7 +2698,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2708,7 +2708,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2718,7 +2718,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2728,7 +2728,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2738,7 +2738,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2748,7 +2748,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2758,7 +2758,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2768,7 +2768,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2778,7 +2778,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2788,7 +2788,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2798,7 +2798,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2808,7 +2808,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2818,7 +2818,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2828,7 +2828,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2838,7 +2838,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2848,7 +2848,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2858,7 +2858,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2868,7 +2868,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2878,7 +2878,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2888,7 +2888,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2898,7 +2898,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2908,7 +2908,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2918,7 +2918,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2928,7 +2928,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2938,7 +2938,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2948,7 +2948,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2958,7 +2958,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2968,7 +2968,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2978,7 +2978,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2988,7 +2988,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2998,7 +2998,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3008,7 +3008,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3018,7 +3018,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3028,7 +3028,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3038,7 +3038,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3048,7 +3048,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3058,7 +3058,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3068,7 +3068,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3078,7 +3078,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3088,7 +3088,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3098,7 +3098,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3108,7 +3108,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3118,7 +3118,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3128,7 +3128,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3138,7 +3138,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3148,7 +3148,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3158,7 +3158,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3168,7 +3168,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3178,7 +3178,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3188,7 +3188,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3198,7 +3198,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3208,7 +3208,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3218,7 +3218,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3228,7 +3228,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3238,7 +3238,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3248,7 +3248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3258,7 +3258,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3268,7 +3268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3278,7 +3278,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3288,7 +3288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3298,7 +3298,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3308,7 +3308,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -3318,7 +3318,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -3328,7 +3328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -3338,7 +3338,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3348,7 +3348,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3358,7 +3358,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3368,7 +3368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3378,7 +3378,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3388,7 +3388,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3398,7 +3398,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3408,7 +3408,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3418,7 +3418,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3428,7 +3428,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3438,7 +3438,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -3448,7 +3448,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -3458,7 +3458,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3468,7 +3468,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -3478,7 +3478,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -3488,7 +3488,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -3498,7 +3498,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -3508,7 +3508,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -3518,7 +3518,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -3528,7 +3528,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -3538,7 +3538,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -3548,7 +3548,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -3558,7 +3558,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -3568,7 +3568,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -3578,7 +3578,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -3588,7 +3588,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -3598,7 +3598,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -3608,7 +3608,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -3618,7 +3618,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -3628,7 +3628,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -3638,7 +3638,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -3648,7 +3648,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3658,7 +3658,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3668,7 +3668,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3678,7 +3678,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3688,7 +3688,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3698,7 +3698,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3708,7 +3708,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3718,7 +3718,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3728,7 +3728,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3738,7 +3738,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3748,7 +3748,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3758,7 +3758,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3768,7 +3768,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3778,7 +3778,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3788,7 +3788,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3798,7 +3798,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3808,7 +3808,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3818,7 +3818,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3828,7 +3828,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3838,7 +3838,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3848,7 +3848,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -3858,7 +3858,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -3868,7 +3868,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -3878,7 +3878,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -3888,7 +3888,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -3898,7 +3898,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -3908,7 +3908,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -3918,7 +3918,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -3928,7 +3928,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -3938,7 +3938,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -3948,7 +3948,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -3958,7 +3958,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -3968,7 +3968,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -3978,7 +3978,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -3988,7 +3988,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -3998,7 +3998,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -4008,7 +4008,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -4018,7 +4018,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -4028,7 +4028,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -4038,7 +4038,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -4048,7 +4048,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -4058,7 +4058,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -4068,7 +4068,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -4078,7 +4078,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -4088,7 +4088,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -4098,7 +4098,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -4108,7 +4108,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -4118,7 +4118,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -4128,7 +4128,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -4138,7 +4138,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -4148,7 +4148,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -4158,7 +4158,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -4168,7 +4168,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -4178,7 +4178,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -4188,7 +4188,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -4198,7 +4198,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -4208,7 +4208,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -4218,7 +4218,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -4228,7 +4228,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -4238,7 +4238,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -4248,7 +4248,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -4258,7 +4258,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -4268,7 +4268,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -4278,7 +4278,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -4288,7 +4288,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -4298,7 +4298,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -4308,7 +4308,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -4318,7 +4318,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -4328,7 +4328,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -4338,7 +4338,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -4348,7 +4348,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -4358,7 +4358,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -4368,7 +4368,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -4378,7 +4378,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -4388,7 +4388,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -4398,7 +4398,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -4408,7 +4408,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -4418,7 +4418,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -4428,7 +4428,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>

--- a/productos.xlsx
+++ b/productos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="281">
   <si>
     <t>codigo</t>
   </si>
@@ -40,7 +40,7 @@
     <t>PITILLO REMOVEDOR DE CAFÉ 200U</t>
   </si>
   <si>
-    <t>images/IPT-004180.jpg</t>
+    <t>imagenes/IPT-004180.jpg</t>
   </si>
   <si>
     <t>1,00</t>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>FILM ESTIRABLE MANUAL 40CMX350M 17MIC</t>
-  </si>
-  <si>
-    <t>images/IPT-004195.jpg</t>
   </si>
   <si>
     <t>1,80</t>
@@ -1013,7 +1010,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1032,9 +1029,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="7" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1374,12 +1368,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="12" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="12" width="60.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="23.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="12" width="12.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="12" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="11" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="60.005" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="11" width="23.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="11" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="11" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -1429,456 +1423,456 @@
       <c r="B3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7">
+        <v>132.41</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="E3" s="8">
-        <v>132.41</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10">
-        <f>_xlfn.CONCAT(A4,".jpg")</f>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>20</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="C5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="10">
-        <f>_xlfn.CONCAT(A5,".jpg")</f>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="10">
-        <f>_xlfn.CONCAT(A6,".jpg")</f>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="10">
-        <f>_xlfn.CONCAT(A7,".jpg")</f>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="10">
-        <f>_xlfn.CONCAT(A8,".jpg")</f>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>27</v>
+      <c r="F8" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="10">
-        <f>_xlfn.CONCAT(A9,".jpg")</f>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="10">
-        <f>_xlfn.CONCAT(A10,".jpg")</f>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="10">
-        <f>_xlfn.CONCAT(A11,".jpg")</f>
+      <c r="C11" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>45</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9">
+        <f>_xlfn.CONCAT(A12,".jpg")</f>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C12" s="10">
-        <f>_xlfn.CONCAT(A12,".jpg")</f>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>45</v>
+      <c r="F12" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <f>_xlfn.CONCAT(A13,".jpg")</f>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="9">
+        <f>_xlfn.CONCAT(A14,".jpg")</f>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="10">
-        <f>_xlfn.CONCAT(A14,".jpg")</f>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>27</v>
+      <c r="F14" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9">
+        <f>_xlfn.CONCAT(A15,".jpg")</f>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C15" s="10">
-        <f>_xlfn.CONCAT(A15,".jpg")</f>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F15" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9">
+        <f>_xlfn.CONCAT(A16,".jpg")</f>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="10">
-        <f>_xlfn.CONCAT(A16,".jpg")</f>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="10">
+        <v>32</v>
+      </c>
+      <c r="C17" s="9">
         <f>_xlfn.CONCAT(A17,".jpg")</f>
       </c>
       <c r="D17" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="9">
+        <f>_xlfn.CONCAT(A18,".jpg")</f>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="10">
-        <f>_xlfn.CONCAT(A18,".jpg")</f>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>27</v>
+      <c r="F18" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
       <c r="A19" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="10">
+        <v>38</v>
+      </c>
+      <c r="C19" s="9">
         <f>_xlfn.CONCAT(A19,".jpg")</f>
       </c>
       <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
       <c r="A20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="9">
+        <f>_xlfn.CONCAT(A20,".jpg")</f>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="10">
-        <f>_xlfn.CONCAT(A20,".jpg")</f>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>27</v>
+      <c r="F20" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="9">
+        <f>_xlfn.CONCAT(A21,".jpg")</f>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="10">
-        <f>_xlfn.CONCAT(A21,".jpg")</f>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>37</v>
-      </c>
       <c r="F21" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
       <c r="A22" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="9">
+        <f>_xlfn.CONCAT(A22,".jpg")</f>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="10">
-        <f>_xlfn.CONCAT(A22,".jpg")</f>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="8" t="s">
         <v>40</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
       <c r="A23" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="10">
+        <v>32</v>
+      </c>
+      <c r="C23" s="9">
         <f>_xlfn.CONCAT(A23,".jpg")</f>
       </c>
       <c r="D23" s="6" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
       <c r="A24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="9">
+        <f>_xlfn.CONCAT(A24,".jpg")</f>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="10">
-        <f>_xlfn.CONCAT(A24,".jpg")</f>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>27</v>
+      <c r="F24" s="8" t="s">
+        <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="9">
+        <f>_xlfn.CONCAT(A25,".jpg")</f>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="10">
-        <f>_xlfn.CONCAT(A25,".jpg")</f>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E25" s="11" t="s">
+      <c r="F25" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>41</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1888,7 +1882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1898,7 +1892,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1908,7 +1902,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1918,7 +1912,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1928,7 +1922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1938,7 +1932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1948,7 +1942,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1958,7 +1952,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1968,7 +1962,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1978,7 +1972,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1988,7 +1982,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1998,7 +1992,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2008,7 +2002,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2018,7 +2012,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2028,7 +2022,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2038,7 +2032,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2048,7 +2042,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2058,7 +2052,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2068,7 +2062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2078,7 +2072,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2088,7 +2082,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2098,7 +2092,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -2108,7 +2102,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -2118,7 +2112,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -2128,7 +2122,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -2138,7 +2132,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -2148,7 +2142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -2158,7 +2152,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -2168,7 +2162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -2178,7 +2172,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -2188,7 +2182,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -2198,7 +2192,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -2208,7 +2202,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -2218,7 +2212,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -2228,7 +2222,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -2238,7 +2232,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -2248,7 +2242,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -2258,7 +2252,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -2268,7 +2262,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -2278,7 +2272,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2288,7 +2282,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -2298,7 +2292,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -2308,7 +2302,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -2318,7 +2312,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -2328,7 +2322,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -2338,7 +2332,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -2348,7 +2342,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -2358,7 +2352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2368,7 +2362,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -2378,7 +2372,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -2388,7 +2382,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -2398,7 +2392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -2408,7 +2402,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -2418,7 +2412,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -2428,7 +2422,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -2438,7 +2432,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2448,7 +2442,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -2458,7 +2452,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -2468,7 +2462,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -2478,7 +2472,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -2488,7 +2482,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -2498,7 +2492,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -2508,7 +2502,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -2518,7 +2512,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -2528,7 +2522,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -2538,7 +2532,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -2548,7 +2542,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -2558,7 +2552,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -2568,7 +2562,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -2578,7 +2572,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -2588,7 +2582,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
@@ -2598,7 +2592,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -2608,7 +2602,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
@@ -2618,7 +2612,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -2628,7 +2622,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -2638,7 +2632,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -2648,7 +2642,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -2658,7 +2652,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -2668,7 +2662,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -2678,7 +2672,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -2688,7 +2682,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
       <c r="A107" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -2698,7 +2692,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -2708,7 +2702,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
       <c r="A109" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -2718,7 +2712,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -2728,7 +2722,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
       <c r="A111" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -2738,7 +2732,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -2748,7 +2742,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
       <c r="A113" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -2758,7 +2752,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -2768,7 +2762,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
       <c r="A115" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -2778,7 +2772,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -2788,7 +2782,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
       <c r="A117" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -2798,7 +2792,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -2808,7 +2802,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
       <c r="A119" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -2818,7 +2812,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -2828,7 +2822,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
       <c r="A121" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -2838,7 +2832,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -2848,7 +2842,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
       <c r="A123" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -2858,7 +2852,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -2868,7 +2862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
       <c r="A125" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -2878,7 +2872,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -2888,7 +2882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -2898,7 +2892,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -2908,7 +2902,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
       <c r="A129" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -2918,7 +2912,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -2928,7 +2922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
       <c r="A131" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -2938,7 +2932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -2948,7 +2942,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
       <c r="A133" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -2958,7 +2952,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -2968,7 +2962,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
       <c r="A135" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -2978,7 +2972,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -2988,7 +2982,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
       <c r="A137" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -2998,7 +2992,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -3008,7 +3002,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
       <c r="A139" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -3018,7 +3012,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -3028,7 +3022,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
       <c r="A141" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -3038,7 +3032,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -3048,7 +3042,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
       <c r="A143" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -3058,7 +3052,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -3068,7 +3062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
       <c r="A145" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -3078,7 +3072,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -3088,7 +3082,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
       <c r="A147" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -3098,7 +3092,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -3108,7 +3102,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
       <c r="A149" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -3118,7 +3112,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -3128,7 +3122,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="151" customHeight="1" ht="18.75">
       <c r="A151" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -3138,7 +3132,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="152" customHeight="1" ht="18.75">
       <c r="A152" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -3148,7 +3142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="153" customHeight="1" ht="18.75">
       <c r="A153" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -3158,7 +3152,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="154" customHeight="1" ht="18.75">
       <c r="A154" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -3168,7 +3162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="155" customHeight="1" ht="18.75">
       <c r="A155" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -3178,7 +3172,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="156" customHeight="1" ht="18.75">
       <c r="A156" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -3188,7 +3182,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="157" customHeight="1" ht="18.75">
       <c r="A157" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -3198,7 +3192,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="158" customHeight="1" ht="18.75">
       <c r="A158" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -3208,7 +3202,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="159" customHeight="1" ht="18.75">
       <c r="A159" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -3218,7 +3212,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="160" customHeight="1" ht="18.75">
       <c r="A160" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -3228,7 +3222,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="161" customHeight="1" ht="18.75">
       <c r="A161" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -3238,7 +3232,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="162" customHeight="1" ht="18.75">
       <c r="A162" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -3248,7 +3242,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="163" customHeight="1" ht="18.75">
       <c r="A163" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -3258,7 +3252,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="164" customHeight="1" ht="18.75">
       <c r="A164" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -3268,7 +3262,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="165" customHeight="1" ht="18.75">
       <c r="A165" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -3278,7 +3272,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="166" customHeight="1" ht="18.75">
       <c r="A166" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -3288,7 +3282,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="167" customHeight="1" ht="18.75">
       <c r="A167" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -3298,7 +3292,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="168" customHeight="1" ht="18.75">
       <c r="A168" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -3308,7 +3302,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="169" customHeight="1" ht="18.75">
       <c r="A169" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -3318,7 +3312,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="170" customHeight="1" ht="18.75">
       <c r="A170" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -3328,7 +3322,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="171" customHeight="1" ht="18.75">
       <c r="A171" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -3338,7 +3332,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="172" customHeight="1" ht="18.75">
       <c r="A172" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -3348,7 +3342,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="173" customHeight="1" ht="18.75">
       <c r="A173" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -3358,7 +3352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="174" customHeight="1" ht="18.75">
       <c r="A174" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -3368,7 +3362,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="175" customHeight="1" ht="18.75">
       <c r="A175" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -3378,7 +3372,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="176" customHeight="1" ht="18.75">
       <c r="A176" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -3388,7 +3382,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="177" customHeight="1" ht="18.75">
       <c r="A177" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -3398,7 +3392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="178" customHeight="1" ht="18.75">
       <c r="A178" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -3408,7 +3402,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="179" customHeight="1" ht="18.75">
       <c r="A179" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -3418,7 +3412,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="180" customHeight="1" ht="18.75">
       <c r="A180" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -3428,7 +3422,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="181" customHeight="1" ht="18.75">
       <c r="A181" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -3438,7 +3432,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="182" customHeight="1" ht="18.75">
       <c r="A182" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -3448,7 +3442,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="183" customHeight="1" ht="18.75">
       <c r="A183" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -3458,7 +3452,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="184" customHeight="1" ht="18.75">
       <c r="A184" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -3468,7 +3462,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="185" customHeight="1" ht="18.75">
       <c r="A185" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -3478,7 +3472,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="186" customHeight="1" ht="18.75">
       <c r="A186" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -3488,7 +3482,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="187" customHeight="1" ht="18.75">
       <c r="A187" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -3498,7 +3492,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="188" customHeight="1" ht="18.75">
       <c r="A188" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -3508,7 +3502,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="189" customHeight="1" ht="18.75">
       <c r="A189" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -3518,7 +3512,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="190" customHeight="1" ht="18.75">
       <c r="A190" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -3528,7 +3522,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="191" customHeight="1" ht="18.75">
       <c r="A191" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -3538,7 +3532,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="192" customHeight="1" ht="18.75">
       <c r="A192" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -3548,7 +3542,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="193" customHeight="1" ht="18.75">
       <c r="A193" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -3558,7 +3552,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="194" customHeight="1" ht="18.75">
       <c r="A194" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -3568,7 +3562,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="195" customHeight="1" ht="18.75">
       <c r="A195" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -3578,7 +3572,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="196" customHeight="1" ht="18.75">
       <c r="A196" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -3588,7 +3582,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="197" customHeight="1" ht="18.75">
       <c r="A197" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -3598,7 +3592,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="198" customHeight="1" ht="18.75">
       <c r="A198" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -3608,7 +3602,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="199" customHeight="1" ht="18.75">
       <c r="A199" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -3618,7 +3612,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="200" customHeight="1" ht="18.75">
       <c r="A200" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -3628,7 +3622,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="201" customHeight="1" ht="18.75">
       <c r="A201" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -3638,7 +3632,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="202" customHeight="1" ht="18.75">
       <c r="A202" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -3648,7 +3642,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="203" customHeight="1" ht="18.75">
       <c r="A203" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -3658,7 +3652,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="204" customHeight="1" ht="18.75">
       <c r="A204" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -3668,7 +3662,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="205" customHeight="1" ht="18.75">
       <c r="A205" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -3678,7 +3672,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="206" customHeight="1" ht="18.75">
       <c r="A206" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -3688,7 +3682,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="207" customHeight="1" ht="18.75">
       <c r="A207" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -3698,7 +3692,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="208" customHeight="1" ht="18.75">
       <c r="A208" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -3708,7 +3702,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="209" customHeight="1" ht="18.75">
       <c r="A209" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -3718,7 +3712,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="210" customHeight="1" ht="18.75">
       <c r="A210" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -3728,7 +3722,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="211" customHeight="1" ht="18.75">
       <c r="A211" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -3738,7 +3732,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="212" customHeight="1" ht="18.75">
       <c r="A212" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -3748,7 +3742,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="213" customHeight="1" ht="18.75">
       <c r="A213" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -3758,7 +3752,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="214" customHeight="1" ht="18.75">
       <c r="A214" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -3768,7 +3762,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="215" customHeight="1" ht="18.75">
       <c r="A215" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -3778,7 +3772,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="216" customHeight="1" ht="18.75">
       <c r="A216" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -3788,7 +3782,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="217" customHeight="1" ht="18.75">
       <c r="A217" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -3798,7 +3792,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="218" customHeight="1" ht="18.75">
       <c r="A218" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -3808,7 +3802,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="219" customHeight="1" ht="18.75">
       <c r="A219" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -3818,7 +3812,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="220" customHeight="1" ht="18.75">
       <c r="A220" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -3828,7 +3822,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="221" customHeight="1" ht="18.75">
       <c r="A221" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -3838,7 +3832,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="222" customHeight="1" ht="18.75">
       <c r="A222" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -3848,7 +3842,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="223" customHeight="1" ht="18.75">
       <c r="A223" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -3858,7 +3852,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="224" customHeight="1" ht="18.75">
       <c r="A224" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -3868,7 +3862,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="225" customHeight="1" ht="18.75">
       <c r="A225" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -3878,7 +3872,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="226" customHeight="1" ht="18.75">
       <c r="A226" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -3888,7 +3882,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="227" customHeight="1" ht="18.75">
       <c r="A227" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -3898,7 +3892,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="228" customHeight="1" ht="18.75">
       <c r="A228" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -3908,7 +3902,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="229" customHeight="1" ht="18.75">
       <c r="A229" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -3918,7 +3912,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="230" customHeight="1" ht="18.75">
       <c r="A230" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -3928,7 +3922,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="231" customHeight="1" ht="18.75">
       <c r="A231" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -3938,7 +3932,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="232" customHeight="1" ht="18.75">
       <c r="A232" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -3948,7 +3942,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="233" customHeight="1" ht="18.75">
       <c r="A233" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -3958,7 +3952,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="234" customHeight="1" ht="18.75">
       <c r="A234" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -3968,7 +3962,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="235" customHeight="1" ht="18.75">
       <c r="A235" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -3978,7 +3972,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="236" customHeight="1" ht="18.75">
       <c r="A236" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -3988,7 +3982,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="237" customHeight="1" ht="18.75">
       <c r="A237" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -3998,7 +3992,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="238" customHeight="1" ht="18.75">
       <c r="A238" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -4008,7 +4002,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="239" customHeight="1" ht="18.75">
       <c r="A239" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -4018,7 +4012,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="240" customHeight="1" ht="18.75">
       <c r="A240" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -4028,7 +4022,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="241" customHeight="1" ht="18.75">
       <c r="A241" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -4038,7 +4032,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="242" customHeight="1" ht="18.75">
       <c r="A242" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -4048,7 +4042,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="243" customHeight="1" ht="18.75">
       <c r="A243" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -4058,7 +4052,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="244" customHeight="1" ht="18.75">
       <c r="A244" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -4068,7 +4062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="245" customHeight="1" ht="18.75">
       <c r="A245" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -4078,7 +4072,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="246" customHeight="1" ht="18.75">
       <c r="A246" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -4088,7 +4082,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="247" customHeight="1" ht="18.75">
       <c r="A247" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -4098,7 +4092,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="248" customHeight="1" ht="18.75">
       <c r="A248" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -4108,7 +4102,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="249" customHeight="1" ht="18.75">
       <c r="A249" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -4118,7 +4112,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="250" customHeight="1" ht="18.75">
       <c r="A250" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -4128,7 +4122,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="251" customHeight="1" ht="18.75">
       <c r="A251" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -4138,7 +4132,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="252" customHeight="1" ht="18.75">
       <c r="A252" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -4148,7 +4142,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="253" customHeight="1" ht="18.75">
       <c r="A253" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -4158,7 +4152,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="254" customHeight="1" ht="18.75">
       <c r="A254" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -4168,7 +4162,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="255" customHeight="1" ht="18.75">
       <c r="A255" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -4178,7 +4172,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="256" customHeight="1" ht="18.75">
       <c r="A256" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -4188,7 +4182,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="257" customHeight="1" ht="18.75">
       <c r="A257" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -4198,7 +4192,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="258" customHeight="1" ht="18.75">
       <c r="A258" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -4208,7 +4202,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="259" customHeight="1" ht="18.75">
       <c r="A259" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -4218,7 +4212,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="260" customHeight="1" ht="18.75">
       <c r="A260" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -4228,7 +4222,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="261" customHeight="1" ht="18.75">
       <c r="A261" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -4238,7 +4232,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="262" customHeight="1" ht="18.75">
       <c r="A262" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -4248,7 +4242,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="263" customHeight="1" ht="18.75">
       <c r="A263" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -4258,7 +4252,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="264" customHeight="1" ht="18.75">
       <c r="A264" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -4268,7 +4262,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="265" customHeight="1" ht="18.75">
       <c r="A265" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -4278,7 +4272,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="266" customHeight="1" ht="18.75">
       <c r="A266" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B266" s="3"/>
       <c r="C266" s="3"/>
@@ -4288,7 +4282,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="267" customHeight="1" ht="18.75">
       <c r="A267" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B267" s="3"/>
       <c r="C267" s="3"/>
@@ -4298,7 +4292,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="268" customHeight="1" ht="18.75">
       <c r="A268" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B268" s="3"/>
       <c r="C268" s="3"/>
@@ -4308,7 +4302,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="269" customHeight="1" ht="18.75">
       <c r="A269" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -4318,7 +4312,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="270" customHeight="1" ht="18.75">
       <c r="A270" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B270" s="3"/>
       <c r="C270" s="3"/>
@@ -4328,7 +4322,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="271" customHeight="1" ht="18.75">
       <c r="A271" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B271" s="3"/>
       <c r="C271" s="3"/>
@@ -4338,7 +4332,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="272" customHeight="1" ht="18.75">
       <c r="A272" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B272" s="3"/>
       <c r="C272" s="3"/>
@@ -4348,7 +4342,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="273" customHeight="1" ht="18.75">
       <c r="A273" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B273" s="3"/>
       <c r="C273" s="3"/>
@@ -4358,7 +4352,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="274" customHeight="1" ht="18.75">
       <c r="A274" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B274" s="3"/>
       <c r="C274" s="3"/>
@@ -4368,7 +4362,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="275" customHeight="1" ht="18.75">
       <c r="A275" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B275" s="3"/>
       <c r="C275" s="3"/>
@@ -4378,7 +4372,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="276" customHeight="1" ht="18.75">
       <c r="A276" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B276" s="3"/>
       <c r="C276" s="3"/>
@@ -4388,7 +4382,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="277" customHeight="1" ht="18.75">
       <c r="A277" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -4398,7 +4392,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="278" customHeight="1" ht="18.75">
       <c r="A278" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B278" s="3"/>
       <c r="C278" s="3"/>
@@ -4408,7 +4402,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="279" customHeight="1" ht="18.75">
       <c r="A279" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B279" s="3"/>
       <c r="C279" s="3"/>
@@ -4418,7 +4412,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="280" customHeight="1" ht="18.75">
       <c r="A280" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B280" s="3"/>
       <c r="C280" s="3"/>
@@ -4428,7 +4422,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="281" customHeight="1" ht="18.75">
       <c r="A281" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B281" s="3"/>
       <c r="C281" s="3"/>
